--- a/data/workload_aug2018.xlsx
+++ b/data/workload_aug2018.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nightraven/Working/Optimization/code/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9F05D22-0400-104F-89A3-3148F564EC1F}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1EE8B2F-F7D4-8E48-B9E8-9FD14DE1A73C}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16280" activeTab="3" xr2:uid="{1AC0D294-ED21-41DD-B61F-C0F05BB4ACE3}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16280" xr2:uid="{1AC0D294-ED21-41DD-B61F-C0F05BB4ACE3}"/>
   </bookViews>
   <sheets>
     <sheet name="dc1" sheetId="1" r:id="rId1"/>
@@ -813,8 +813,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5504485-04A0-4EFE-902B-4833CC7B7514}">
   <dimension ref="A1:E18"/>
   <sheetViews>
-    <sheetView zoomScale="125" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:E1"/>
+    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F1" sqref="F1:H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1137,7 +1137,7 @@
   <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView zoomScale="144" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:E1"/>
+      <selection activeCell="F1" sqref="F1:H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1409,7 +1409,7 @@
   <dimension ref="A1:E18"/>
   <sheetViews>
     <sheetView zoomScale="150" workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+      <selection activeCell="F1" sqref="F1:H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1666,8 +1666,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{249020DB-3C9E-4E48-934B-B39BE7E8B1DC}">
   <dimension ref="A1:E18"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView zoomScale="150" workbookViewId="0">
+      <selection activeCell="F1" sqref="F1:H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>

--- a/data/workload_aug2018.xlsx
+++ b/data/workload_aug2018.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nightraven/Working/Optimization/code/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1EE8B2F-F7D4-8E48-B9E8-9FD14DE1A73C}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E29CF16-8F79-D449-9D56-C009014FA406}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16280" xr2:uid="{1AC0D294-ED21-41DD-B61F-C0F05BB4ACE3}"/>
   </bookViews>
@@ -19,6 +19,7 @@
     <sheet name="dc4" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="179021"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
